--- a/scheduling/排班.xlsx
+++ b/scheduling/排班.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="69">
   <si>
     <t>Mon</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>张毛宁</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>班次</t>
@@ -249,12 +252,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDC9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -298,7 +307,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -1491,10 +1503,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
@@ -1581,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="AG10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH10" s="2" t="s">
         <v>7</v>
@@ -1597,104 +1609,104 @@
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>16</v>
+      <c r="S11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="AH11" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI11" s="2">
-        <v>540</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1705,103 +1717,103 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AD12" s="2" t="s">
-        <v>15</v>
+      <c r="AD12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF12" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH12" s="2">
         <v>9</v>
       </c>
       <c r="AI12" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1811,104 +1823,104 @@
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>16</v>
+      <c r="Q13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AF13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH13" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI13" s="2">
-        <v>620</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1919,103 +1931,103 @@
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>16</v>
+      <c r="W14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AH14" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AI14" s="2">
-        <v>510</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2026,13 +2038,13 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -2040,89 +2052,89 @@
       <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>9</v>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH15" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI15" s="2">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2132,104 +2144,104 @@
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AG16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AH16" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI16" s="2">
-        <v>580</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2240,103 +2252,103 @@
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA17" s="3" t="s">
+      <c r="W17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH17" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI17" s="2">
-        <v>520</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2347,103 +2359,103 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>16</v>
+      <c r="R18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>16</v>
+      <c r="Z18" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH18" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI18" s="2">
-        <v>440</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2454,103 +2466,103 @@
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>15</v>
+      <c r="R19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE19" s="3" t="s">
-        <v>16</v>
+      <c r="AE19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH19" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI19" s="2">
-        <v>620</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2560,104 +2572,104 @@
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH20" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI20" s="2">
-        <v>630</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2673,89 +2685,89 @@
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
+      <c r="O21" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z21" s="2" t="s">
-        <v>14</v>
+      <c r="Z21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG21" s="2" t="s">
         <v>11</v>
@@ -2775,22 +2787,22 @@
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>11</v>
@@ -2799,79 +2811,79 @@
         <v>12</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>15</v>
+      <c r="X22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AG22" s="3" t="s">
+      <c r="AG22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AH22" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI22" s="2">
-        <v>730</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2885,100 +2897,100 @@
         <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>10</v>
+      <c r="L23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF23" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI23" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2989,103 +3001,103 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG24" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AH24" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI24" s="2">
-        <v>400</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3096,22 +3108,22 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>14</v>
@@ -3120,12 +3132,12 @@
         <v>13</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3137,62 +3149,62 @@
       <c r="P25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R25" s="3" t="s">
+      <c r="Q25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH25" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI25" s="2">
-        <v>500</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3203,103 +3215,103 @@
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH26" s="2">
         <v>7</v>
       </c>
       <c r="AI26" s="2">
-        <v>740</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3309,104 +3321,104 @@
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>16</v>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>9</v>
+      <c r="P27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC27" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG27" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="AG27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH27" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI27" s="2">
-        <v>590</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3416,104 +3428,104 @@
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>16</v>
+      <c r="V28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>10</v>
+      <c r="AA28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF28" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH28" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" s="2">
-        <v>620</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3524,103 +3536,103 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="AD29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG29" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AH29" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI29" s="2">
-        <v>530</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3634,46 +3646,46 @@
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>16</v>
+      <c r="P30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>14</v>
@@ -3682,40 +3694,40 @@
         <v>13</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Y30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>13</v>
+      <c r="Z30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="AC30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF30" s="2" t="s">
         <v>13</v>
@@ -3724,10 +3736,10 @@
         <v>11</v>
       </c>
       <c r="AH30" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI30" s="2">
-        <v>710</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3737,62 +3749,62 @@
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>16</v>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>16</v>
+      <c r="L31" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>15</v>
@@ -3800,41 +3812,41 @@
       <c r="W31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>10</v>
+      <c r="X31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF31" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH31" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI31" s="2">
-        <v>520</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3845,55 +3857,55 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>10</v>
@@ -3901,29 +3913,29 @@
       <c r="U32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>16</v>
+      <c r="V32" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD32" s="2" t="s">
         <v>14</v>
@@ -3932,16 +3944,16 @@
         <v>13</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AH32" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI32" s="2">
-        <v>570</v>
+        <v>660</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3952,46 +3964,46 @@
         <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>13</v>
+      <c r="H33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>16</v>
+      <c r="P33" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>11</v>
@@ -3999,56 +4011,56 @@
       <c r="R33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T33" s="3" t="s">
+      <c r="S33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF33" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AE33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AH33" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI33" s="2">
-        <v>780</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4059,94 +4071,94 @@
         <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T34" s="3" t="s">
+      <c r="Q34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG34" s="2" t="s">
         <v>14</v>
@@ -4155,7 +4167,7 @@
         <v>8</v>
       </c>
       <c r="AI34" s="2">
-        <v>680</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4168,101 +4180,101 @@
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
+      <c r="D35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>14</v>
+      <c r="X35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH35" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI35" s="2">
-        <v>660</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4272,59 +4284,59 @@
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
+      <c r="C36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>12</v>
@@ -4332,44 +4344,44 @@
       <c r="V36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>9</v>
+      <c r="W36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD36" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH36" s="2">
         <v>9</v>
       </c>
       <c r="AI36" s="2">
-        <v>540</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4380,103 +4392,103 @@
         <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AE37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH37" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI37" s="2">
-        <v>520</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4486,104 +4498,104 @@
       <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>16</v>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T38" s="3" t="s">
+      <c r="O38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AB38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>10</v>
+      <c r="AB38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AH38" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI38" s="2">
-        <v>630</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4597,100 +4609,100 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T39" s="3" t="s">
-        <v>16</v>
+      <c r="T39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA39" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE39" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="AE39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH39" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI39" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -4700,104 +4712,104 @@
       <c r="B40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>16</v>
+      <c r="C40" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>10</v>
+      <c r="Q40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC40" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="AF40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH40" s="2">
         <v>8</v>
       </c>
       <c r="AI40" s="2">
-        <v>660</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -4808,103 +4820,103 @@
         <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB41" s="3" t="s">
-        <v>16</v>
+      <c r="AA41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AC41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG41" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AF41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AH41" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI41" s="2">
-        <v>600</v>
+        <v>720</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -4921,97 +4933,97 @@
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>16</v>
+      <c r="Z42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC42" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="AC42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF42" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH42" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI42" s="2">
-        <v>560</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -5021,101 +5033,101 @@
       <c r="B43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
+      <c r="C43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
+      <c r="P43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AF43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH43" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI43" s="2">
         <v>520</v>
@@ -5131,80 +5143,80 @@
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>11</v>
+      <c r="D44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>16</v>
+      <c r="Z44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC44" s="2" t="s">
         <v>9</v>
@@ -5212,11 +5224,11 @@
       <c r="AD44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AE44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF44" s="3" t="s">
-        <v>16</v>
+      <c r="AE44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF44" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AG44" s="2" t="s">
         <v>12</v>
@@ -5225,7 +5237,7 @@
         <v>9</v>
       </c>
       <c r="AI44" s="2">
-        <v>570</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5236,103 +5248,103 @@
         <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD45" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH45" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI45" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:35">
@@ -5343,85 +5355,85 @@
         <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y46" s="3" t="s">
+      <c r="Y46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC46" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD46" s="2" t="s">
         <v>11</v>
@@ -5429,17 +5441,17 @@
       <c r="AE46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AF46" s="2" t="s">
-        <v>14</v>
+      <c r="AF46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH46" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI46" s="2">
-        <v>640</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -5450,103 +5462,103 @@
         <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB47" s="2" t="s">
-        <v>10</v>
+      <c r="AA47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD47" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG47" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH47" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI47" s="2">
-        <v>570</v>
+        <v>680</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -5557,103 +5569,103 @@
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
+      <c r="M48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>9</v>
+      <c r="P48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF48" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="AE48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AH48" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI48" s="2">
-        <v>580</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -5664,103 +5676,103 @@
         <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AE49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH49" s="2">
         <v>10</v>
       </c>
       <c r="AI49" s="2">
-        <v>580</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -5771,103 +5783,103 @@
         <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AC50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AD50" s="3" t="s">
+      <c r="AD50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH50" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI50" s="2">
-        <v>420</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -5877,104 +5889,104 @@
       <c r="B51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>10</v>
+      <c r="C51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB51" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AC51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE51" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG51" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AG51" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AH51" s="2">
         <v>9</v>
       </c>
       <c r="AI51" s="2">
-        <v>570</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -5985,49 +5997,49 @@
         <v>20</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>15</v>
@@ -6035,53 +6047,53 @@
       <c r="S52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="T52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD52" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="AD52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG52" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AH52" s="2">
         <v>9</v>
       </c>
       <c r="AI52" s="2">
-        <v>610</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6091,104 +6103,104 @@
       <c r="B53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>16</v>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>15</v>
+      <c r="P53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X53" s="3" t="s">
-        <v>16</v>
+      <c r="V53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG53" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AG53" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AH53" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI53" s="2">
-        <v>430</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6199,82 +6211,82 @@
         <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
+      <c r="I54" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC54" s="2" t="s">
         <v>14</v>
@@ -6282,20 +6294,20 @@
       <c r="AD54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AE54" s="3" t="s">
+      <c r="AE54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AF54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH54" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI54" s="2">
-        <v>670</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -6313,16 +6325,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>

--- a/scheduling/排班.xlsx
+++ b/scheduling/排班.xlsx
@@ -1615,86 +1615,86 @@
       <c r="D11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF11" s="4" t="s">
         <v>16</v>
@@ -1703,10 +1703,10 @@
         <v>64</v>
       </c>
       <c r="AH11" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI11" s="2">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1717,103 +1717,103 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>11</v>
+      <c r="Q12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>15</v>
+      <c r="Y12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AG12" s="2" t="s">
-        <v>13</v>
+      <c r="AG12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH12" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI12" s="2">
-        <v>560</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1823,14 +1823,14 @@
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -1841,86 +1841,86 @@
       <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>16</v>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>12</v>
+      <c r="T13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W13" s="4" t="s">
-        <v>16</v>
+      <c r="W13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>14</v>
+      <c r="Z13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH13" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI13" s="2">
-        <v>520</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1934,19 +1934,19 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>16</v>
@@ -1955,28 +1955,28 @@
         <v>11</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>12</v>
+      <c r="Q14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>11</v>
@@ -1984,29 +1984,29 @@
       <c r="T14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>15</v>
+      <c r="U14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC14" s="4" t="s">
         <v>16</v>
@@ -2015,19 +2015,19 @@
         <v>12</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH14" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI14" s="2">
-        <v>810</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2038,19 +2038,19 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>15</v>
@@ -2059,82 +2059,82 @@
         <v>16</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>16</v>
+      <c r="L15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>11</v>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>15</v>
+      <c r="U15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y15" s="4" t="s">
-        <v>16</v>
+      <c r="Y15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA15" s="4" t="s">
-        <v>16</v>
+      <c r="AA15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AB15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG15" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AH15" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI15" s="2">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2144,104 +2144,104 @@
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH16" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI16" s="2">
-        <v>600</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2252,22 +2252,22 @@
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>16</v>
@@ -2279,76 +2279,76 @@
         <v>14</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>12</v>
+      <c r="R17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>10</v>
+      <c r="X17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH17" s="2">
         <v>9</v>
       </c>
       <c r="AI17" s="2">
-        <v>610</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2359,61 +2359,61 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>11</v>
@@ -2421,41 +2421,41 @@
       <c r="W18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="4" t="s">
-        <v>16</v>
+      <c r="X18" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH18" s="2">
         <v>7</v>
       </c>
       <c r="AI18" s="2">
-        <v>600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2466,103 +2466,103 @@
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="X19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB19" s="4" t="s">
-        <v>16</v>
+      <c r="AB19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AH19" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI19" s="2">
-        <v>520</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2572,14 +2572,14 @@
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -2588,88 +2588,88 @@
         <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>10</v>
+      <c r="S20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>16</v>
+      <c r="X20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AH20" s="2">
         <v>10</v>
       </c>
       <c r="AI20" s="2">
-        <v>560</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2679,83 +2679,83 @@
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>15</v>
@@ -2767,7 +2767,7 @@
         <v>16</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG21" s="2" t="s">
         <v>11</v>
@@ -2776,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="AI21" s="2">
-        <v>550</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2793,34 +2793,34 @@
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>13</v>
@@ -2829,61 +2829,61 @@
         <v>16</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AD22" s="2" t="s">
-        <v>12</v>
+      <c r="AD22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG22" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AH22" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI22" s="2">
-        <v>680</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2893,104 +2893,104 @@
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>16</v>
+      <c r="M23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>15</v>
+      <c r="O23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>10</v>
+      <c r="AA23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH23" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI23" s="2">
-        <v>560</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3000,41 +3000,41 @@
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>16</v>
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>12</v>
@@ -3048,56 +3048,56 @@
       <c r="R24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S24" s="4" t="s">
-        <v>16</v>
+      <c r="S24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AH24" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI24" s="2">
-        <v>510</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3108,94 +3108,94 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF25" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG25" s="2" t="s">
         <v>15</v>
@@ -3204,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="AI25" s="2">
-        <v>590</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3215,46 +3215,46 @@
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>16</v>
@@ -3263,55 +3263,55 @@
         <v>16</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="4" t="s">
-        <v>16</v>
+      <c r="X26" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="AG26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH26" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI26" s="2">
-        <v>590</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3322,58 +3322,58 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U27" s="4" t="s">
         <v>16</v>
@@ -3381,44 +3381,44 @@
       <c r="V27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W27" s="4" t="s">
-        <v>16</v>
+      <c r="W27" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="X27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG27" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AH27" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI27" s="2">
-        <v>390</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3429,67 +3429,67 @@
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>11</v>
+      <c r="F28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>13</v>
+      <c r="Q28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X28" s="2" t="s">
         <v>11</v>
@@ -3498,34 +3498,34 @@
         <v>16</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AC28" s="4" t="s">
-        <v>16</v>
+      <c r="AC28" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG28" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="AG28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH28" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI28" s="2">
-        <v>520</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3536,103 +3536,103 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>11</v>
+      <c r="S29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z29" s="2" t="s">
-        <v>11</v>
+      <c r="Z29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH29" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI29" s="2">
-        <v>620</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3642,41 +3642,41 @@
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
+      <c r="C30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>15</v>
@@ -3687,59 +3687,59 @@
       <c r="Q30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>14</v>
+      <c r="R30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z30" s="4" t="s">
-        <v>16</v>
+      <c r="Z30" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AA30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD30" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AE30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="AG30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH30" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI30" s="2">
-        <v>660</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3749,104 +3749,104 @@
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
+      <c r="C31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>16</v>
+      <c r="P31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="S31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>12</v>
+      <c r="T31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Z31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA31" s="4" t="s">
-        <v>16</v>
+      <c r="AA31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF31" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AE31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH31" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI31" s="2">
-        <v>610</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3857,103 +3857,103 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AG32" s="4" t="s">
-        <v>16</v>
+      <c r="AG32" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AH32" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI32" s="2">
-        <v>660</v>
+        <v>680</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3964,19 +3964,19 @@
         <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
@@ -3990,26 +3990,26 @@
       <c r="K33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>11</v>
+      <c r="L33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>16</v>
@@ -4017,50 +4017,50 @@
       <c r="T33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U33" s="2" t="s">
-        <v>12</v>
+      <c r="U33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA33" s="2" t="s">
-        <v>11</v>
+      <c r="AA33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH33" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI33" s="2">
-        <v>620</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4071,103 +4071,103 @@
         <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>10</v>
+      <c r="M34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T34" s="4" t="s">
-        <v>16</v>
+      <c r="T34" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z34" s="2" t="s">
-        <v>10</v>
+      <c r="Z34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH34" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI34" s="2">
-        <v>650</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4178,103 +4178,103 @@
         <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD35" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AB35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH35" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI35" s="2">
-        <v>590</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4284,104 +4284,104 @@
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>11</v>
+      <c r="F36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA36" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD36" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="AD36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG36" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AH36" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI36" s="2">
-        <v>660</v>
+        <v>630</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4392,67 +4392,67 @@
         <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>9</v>
+      <c r="O37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R37" s="4" t="s">
-        <v>16</v>
+      <c r="R37" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="X37" s="4" t="s">
         <v>16</v>
@@ -4461,10 +4461,10 @@
         <v>16</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB37" s="2" t="s">
         <v>15</v>
@@ -4472,23 +4472,23 @@
       <c r="AC37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AD37" s="4" t="s">
-        <v>16</v>
+      <c r="AD37" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF37" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="AF37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH37" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI37" s="2">
-        <v>570</v>
+        <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4499,37 +4499,37 @@
         <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>12</v>
@@ -4540,8 +4540,8 @@
       <c r="P38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" s="4" t="s">
-        <v>16</v>
+      <c r="Q38" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R38" s="4" t="s">
         <v>16</v>
@@ -4549,53 +4549,53 @@
       <c r="S38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T38" s="4" t="s">
-        <v>16</v>
+      <c r="T38" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH38" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI38" s="2">
-        <v>480</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4606,73 +4606,73 @@
         <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R39" s="4" t="s">
-        <v>16</v>
+      <c r="R39" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W39" s="4" t="s">
-        <v>16</v>
+      <c r="W39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="X39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y39" s="2" t="s">
-        <v>14</v>
+      <c r="Y39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z39" s="4" t="s">
         <v>16</v>
@@ -4681,28 +4681,28 @@
         <v>11</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH39" s="2">
         <v>8</v>
       </c>
       <c r="AI39" s="2">
-        <v>510</v>
+        <v>640</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -4719,34 +4719,34 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>14</v>
@@ -4757,8 +4757,8 @@
       <c r="Q40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>16</v>
+      <c r="R40" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="S40" s="4" t="s">
         <v>16</v>
@@ -4767,49 +4767,49 @@
         <v>16</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA40" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="AD40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF40" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AF40" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH40" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI40" s="2">
-        <v>520</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -4820,103 +4820,103 @@
         <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>16</v>
+      <c r="G41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>14</v>
+      <c r="W41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA41" s="4" t="s">
-        <v>16</v>
+      <c r="Z41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="AC41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF41" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AE41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AG41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AH41" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI41" s="2">
-        <v>720</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -4926,101 +4926,101 @@
       <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>15</v>
+      <c r="C42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T42" s="4" t="s">
-        <v>16</v>
+      <c r="T42" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y42" s="2" t="s">
-        <v>11</v>
+      <c r="Y42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD42" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH42" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI42" s="2">
         <v>630</v>
@@ -5033,38 +5033,38 @@
       <c r="B43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>10</v>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>16</v>
+      <c r="M43" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>14</v>
@@ -5072,65 +5072,65 @@
       <c r="O43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P43" s="4" t="s">
-        <v>16</v>
+      <c r="P43" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>14</v>
+      <c r="R43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y43" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB43" s="2" t="s">
-        <v>13</v>
+      <c r="AA43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AE43" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG43" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH43" s="2">
         <v>11</v>
       </c>
       <c r="AI43" s="2">
-        <v>520</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -5143,101 +5143,101 @@
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>16</v>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>9</v>
+      <c r="F44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>16</v>
+      <c r="Q44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="X44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z44" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="AC44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH44" s="2">
         <v>9</v>
       </c>
       <c r="AI44" s="2">
-        <v>590</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5251,100 +5251,100 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>16</v>
+      <c r="M45" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>14</v>
+      <c r="R45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V45" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD45" s="2" t="s">
-        <v>10</v>
+      <c r="AB45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH45" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI45" s="2">
-        <v>570</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:35">
@@ -5355,79 +5355,79 @@
         <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T46" s="4" t="s">
-        <v>16</v>
+      <c r="S46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA46" s="4" t="s">
-        <v>16</v>
+      <c r="Z46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AB46" s="2" t="s">
         <v>15</v>
@@ -5438,20 +5438,20 @@
       <c r="AD46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF46" s="4" t="s">
-        <v>16</v>
+      <c r="AE46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AH46" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI46" s="2">
-        <v>430</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -5462,10 +5462,10 @@
         <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
@@ -5473,32 +5473,32 @@
       <c r="F47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>16</v>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>12</v>
+      <c r="L47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>12</v>
@@ -5513,16 +5513,16 @@
         <v>16</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X47" s="4" t="s">
         <v>16</v>
@@ -5531,34 +5531,34 @@
         <v>16</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB47" s="4" t="s">
-        <v>16</v>
+      <c r="AB47" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG47" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AF47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG47" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AH47" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI47" s="2">
-        <v>680</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -5569,52 +5569,52 @@
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>12</v>
+      <c r="N48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S48" s="4" t="s">
         <v>16</v>
@@ -5623,49 +5623,49 @@
         <v>16</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y48" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB48" s="2" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG48" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH48" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI48" s="2">
-        <v>610</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -5676,16 +5676,16 @@
         <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>15</v>
@@ -5693,86 +5693,86 @@
       <c r="H49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>16</v>
+      <c r="I49" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T49" s="4" t="s">
-        <v>16</v>
+      <c r="R49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V49" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD49" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AE49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF49" s="2" t="s">
-        <v>9</v>
+      <c r="AF49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH49" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI49" s="2">
-        <v>480</v>
+        <v>650</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -5783,103 +5783,103 @@
         <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>16</v>
+      <c r="K50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>9</v>
+      <c r="P50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U50" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y50" s="4" t="s">
-        <v>16</v>
+      <c r="Y50" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Z50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA50" s="2" t="s">
-        <v>10</v>
+      <c r="AA50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD50" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF50" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="AF50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AH50" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI50" s="2">
-        <v>520</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -5889,104 +5889,104 @@
       <c r="B51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>11</v>
+      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>16</v>
+      <c r="L51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S51" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z51" s="4" t="s">
-        <v>16</v>
+      <c r="X51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AC51" s="2" t="s">
-        <v>11</v>
+      <c r="AC51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE51" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH51" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI51" s="2">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -6000,100 +6000,100 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>11</v>
+      <c r="M52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="4" t="s">
-        <v>16</v>
+      <c r="Q52" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T52" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>12</v>
+      <c r="W52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB52" s="4" t="s">
-        <v>16</v>
+      <c r="AA52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AC52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AD52" s="4" t="s">
-        <v>16</v>
+      <c r="AD52" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF52" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AF52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AH52" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI52" s="2">
-        <v>510</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6107,70 +6107,70 @@
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q53" s="4" t="s">
-        <v>16</v>
+      <c r="Q53" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T53" s="4" t="s">
-        <v>16</v>
+      <c r="S53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X53" s="2" t="s">
-        <v>11</v>
+      <c r="X53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z53" s="4" t="s">
         <v>16</v>
@@ -6179,10 +6179,10 @@
         <v>16</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC53" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AD53" s="2" t="s">
         <v>11</v>
@@ -6191,16 +6191,16 @@
         <v>11</v>
       </c>
       <c r="AF53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="AG53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH53" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI53" s="2">
-        <v>570</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6211,31 +6211,31 @@
         <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>16</v>
@@ -6244,70 +6244,70 @@
         <v>16</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R54" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE54" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AD54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE54" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH54" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI54" s="2">
-        <v>550</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/scheduling/排班.xlsx
+++ b/scheduling/排班.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="70">
   <si>
     <t>Mon</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>提示信息</t>
+  </si>
+  <si>
+    <t>两个班次之间的休息时间小于12小时</t>
   </si>
 </sst>
 </file>
@@ -1616,37 +1619,37 @@
         <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>15</v>
@@ -1655,58 +1658,58 @@
         <v>16</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AB11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AC11" s="2" t="s">
-        <v>11</v>
+      <c r="AC11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>64</v>
       </c>
       <c r="AH11" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI11" s="2">
-        <v>550</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1717,37 +1720,37 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>11</v>
+      <c r="L12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>15</v>
@@ -1755,65 +1758,65 @@
       <c r="O12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>16</v>
+      <c r="P12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>16</v>
+      <c r="R12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>16</v>
+      <c r="W12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA12" s="4" t="s">
-        <v>16</v>
+      <c r="AA12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG12" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AH12" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AI12" s="2">
-        <v>460</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1827,37 +1830,37 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>11</v>
@@ -1866,61 +1869,61 @@
         <v>16</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>16</v>
+      <c r="T13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>15</v>
+      <c r="AB13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH13" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI13" s="2">
-        <v>570</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1931,22 +1934,22 @@
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>16</v>
@@ -1957,68 +1960,68 @@
       <c r="K14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>12</v>
+      <c r="L14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>16</v>
+      <c r="Q14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>16</v>
+      <c r="W14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>16</v>
+      <c r="AB14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>10</v>
@@ -2027,7 +2030,7 @@
         <v>11</v>
       </c>
       <c r="AI14" s="2">
-        <v>680</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2038,103 +2041,103 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>10</v>
+      <c r="R15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="4" t="s">
-        <v>16</v>
+      <c r="T15" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>11</v>
+      <c r="X15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA15" s="2" t="s">
-        <v>10</v>
+      <c r="AA15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH15" s="2">
         <v>11</v>
       </c>
       <c r="AI15" s="2">
-        <v>590</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2145,103 +2148,103 @@
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Y16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH16" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="2">
-        <v>730</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2252,10 +2255,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
@@ -2263,35 +2266,35 @@
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>14</v>
+      <c r="G17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>16</v>
@@ -2299,20 +2302,20 @@
       <c r="R17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>16</v>
+      <c r="S17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>15</v>
@@ -2320,35 +2323,35 @@
       <c r="Y17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>16</v>
+      <c r="Z17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AH17" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI17" s="2">
-        <v>460</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2359,16 +2362,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>16</v>
@@ -2377,85 +2380,85 @@
         <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AD18" s="4" t="s">
-        <v>16</v>
+      <c r="AD18" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH18" s="2">
         <v>7</v>
       </c>
       <c r="AI18" s="2">
-        <v>640</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2468,56 +2471,56 @@
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>15</v>
@@ -2525,26 +2528,26 @@
       <c r="V19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>16</v>
+      <c r="W19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>11</v>
@@ -2552,17 +2555,17 @@
       <c r="AE19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AF19" s="4" t="s">
-        <v>16</v>
+      <c r="AF19" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH19" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI19" s="2">
-        <v>660</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2573,103 +2576,103 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH20" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="2">
-        <v>530</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2692,58 +2695,58 @@
         <v>9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>16</v>
@@ -2752,31 +2755,31 @@
         <v>16</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH21" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI21" s="2">
-        <v>630</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2787,103 +2790,103 @@
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH22" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI22" s="2">
-        <v>590</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2896,101 +2899,101 @@
       <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T23" s="2" t="s">
-        <v>11</v>
+      <c r="T23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AB23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>10</v>
+      <c r="AC23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH23" s="2">
         <v>11</v>
       </c>
       <c r="AI23" s="2">
-        <v>620</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3000,104 +3003,104 @@
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>16</v>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>9</v>
+      <c r="M24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH24" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI24" s="2">
-        <v>650</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3108,103 +3111,103 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>10</v>
+      <c r="M25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>16</v>
+      <c r="P25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>11</v>
+      <c r="X25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH25" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI25" s="2">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3214,62 +3217,62 @@
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>14</v>
@@ -3277,41 +3280,41 @@
       <c r="W26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="2" t="s">
-        <v>15</v>
+      <c r="X26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z26" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG26" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AH26" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI26" s="2">
-        <v>420</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3324,101 +3327,101 @@
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>16</v>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>16</v>
+      <c r="I27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>16</v>
+      <c r="P27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC27" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH27" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="2">
-        <v>590</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3429,103 +3432,103 @@
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>16</v>
+      <c r="M28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>10</v>
+      <c r="R28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z28" s="2" t="s">
-        <v>15</v>
+      <c r="Z28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB28" s="4" t="s">
-        <v>16</v>
+      <c r="AB28" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AH28" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI28" s="2">
-        <v>470</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3535,68 +3538,68 @@
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>16</v>
+      <c r="Q29" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>12</v>
+      <c r="S29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="X29" s="2" t="s">
         <v>10</v>
@@ -3604,35 +3607,35 @@
       <c r="Y29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z29" s="4" t="s">
-        <v>16</v>
+      <c r="Z29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE29" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AD29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH29" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI29" s="2">
-        <v>550</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3642,59 +3645,59 @@
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>16</v>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>12</v>
+      <c r="I30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>13</v>
+      <c r="N30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>14</v>
+      <c r="Q30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>15</v>
@@ -3702,44 +3705,44 @@
       <c r="V30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W30" s="4" t="s">
-        <v>16</v>
+      <c r="W30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="X30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA30" s="4" t="s">
-        <v>16</v>
+      <c r="Y30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE30" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="AE30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG30" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AH30" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI30" s="2">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3749,104 +3752,104 @@
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>16</v>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>16</v>
+      <c r="I31" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>16</v>
+      <c r="Q31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE31" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH31" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI31" s="2">
-        <v>710</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3857,16 +3860,16 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>15</v>
@@ -3875,85 +3878,85 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>9</v>
+      <c r="X32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG32" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="AG32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH32" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI32" s="2">
-        <v>680</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3964,34 +3967,34 @@
         <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>16</v>
@@ -3999,17 +4002,17 @@
       <c r="N33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O33" s="4" t="s">
-        <v>16</v>
+      <c r="O33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>16</v>
@@ -4017,50 +4020,50 @@
       <c r="T33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U33" s="4" t="s">
-        <v>16</v>
+      <c r="U33" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA33" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH33" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI33" s="2">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4074,46 +4077,46 @@
         <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>9</v>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R34" s="4" t="s">
         <v>16</v>
@@ -4121,53 +4124,53 @@
       <c r="S34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T34" s="2" t="s">
-        <v>15</v>
+      <c r="T34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y34" s="4" t="s">
-        <v>16</v>
+      <c r="Y34" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Z34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="AC34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH34" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI34" s="2">
-        <v>570</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4181,100 +4184,100 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>16</v>
+      <c r="O35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W35" s="4" t="s">
-        <v>16</v>
+      <c r="W35" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="X35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC35" s="4" t="s">
-        <v>16</v>
+      <c r="Y35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF35" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="AF35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH35" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI35" s="2">
-        <v>560</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4285,85 +4288,85 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>13</v>
+      <c r="P36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD36" s="4" t="s">
         <v>16</v>
@@ -4372,16 +4375,16 @@
         <v>9</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH36" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI36" s="2">
-        <v>630</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4395,100 +4398,100 @@
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>16</v>
+      <c r="K37" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AB37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF37" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH37" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI37" s="2">
-        <v>660</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4499,46 +4502,46 @@
         <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>15</v>
@@ -4546,56 +4549,56 @@
       <c r="R38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S38" s="4" t="s">
-        <v>16</v>
+      <c r="S38" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="AB38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AD38" s="4" t="s">
-        <v>16</v>
+      <c r="AD38" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG38" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="AG38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH38" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI38" s="2">
-        <v>650</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4609,100 +4612,100 @@
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>16</v>
+      <c r="F39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE39" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH39" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI39" s="2">
-        <v>640</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -4712,104 +4715,104 @@
       <c r="B40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>11</v>
+      <c r="C40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S40" s="4" t="s">
-        <v>16</v>
+      <c r="S40" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB40" s="2" t="s">
-        <v>10</v>
+      <c r="X40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD40" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AG40" s="2" t="s">
-        <v>15</v>
+      <c r="AG40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH40" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI40" s="2">
-        <v>570</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -4819,53 +4822,53 @@
       <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>15</v>
+      <c r="C41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="S41" s="4" t="s">
         <v>16</v>
@@ -4874,16 +4877,16 @@
         <v>16</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X41" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="Y41" s="4" t="s">
         <v>16</v>
@@ -4892,31 +4895,31 @@
         <v>16</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC41" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH41" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI41" s="2">
-        <v>500</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -4926,104 +4929,104 @@
       <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>16</v>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="2" t="s">
-        <v>10</v>
+      <c r="P42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD42" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="AF42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH42" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI42" s="2">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -5034,19 +5037,19 @@
         <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>13</v>
@@ -5055,25 +5058,25 @@
         <v>16</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>16</v>
@@ -5081,56 +5084,56 @@
       <c r="R43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>10</v>
+      <c r="S43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z43" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AA43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB43" s="4" t="s">
-        <v>16</v>
+      <c r="AB43" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG43" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AF43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AH43" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI43" s="2">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -5141,46 +5144,46 @@
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>16</v>
@@ -5188,56 +5191,56 @@
       <c r="R44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>11</v>
+      <c r="S44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y44" s="2" t="s">
-        <v>14</v>
+      <c r="Y44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD44" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH44" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI44" s="2">
-        <v>560</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5251,46 +5254,46 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>10</v>
+      <c r="M45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>16</v>
@@ -5298,53 +5301,53 @@
       <c r="S45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="4" t="s">
-        <v>16</v>
+      <c r="T45" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB45" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH45" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI45" s="2">
-        <v>530</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="1:35">
@@ -5355,103 +5358,103 @@
         <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z46" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB46" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="AB46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE46" s="4" t="s">
-        <v>16</v>
+      <c r="AE46" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AF46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AG46" s="2" t="s">
-        <v>11</v>
+      <c r="AG46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH46" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI46" s="2">
-        <v>630</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -5462,67 +5465,67 @@
         <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="4" t="s">
-        <v>16</v>
+      <c r="R47" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="2" t="s">
-        <v>15</v>
+      <c r="T47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X47" s="4" t="s">
         <v>16</v>
@@ -5531,34 +5534,34 @@
         <v>16</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA47" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="AC47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF47" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AF47" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH47" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI47" s="2">
-        <v>460</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -5572,76 +5575,76 @@
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="4" t="s">
-        <v>16</v>
+      <c r="N48" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>13</v>
+      <c r="P48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB48" s="4" t="s">
         <v>16</v>
@@ -5649,23 +5652,23 @@
       <c r="AC48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AD48" s="2" t="s">
-        <v>14</v>
+      <c r="AD48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG48" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AG48" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AH48" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI48" s="2">
-        <v>580</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -5676,31 +5679,31 @@
         <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>14</v>
+      <c r="H49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>11</v>
@@ -5714,65 +5717,65 @@
       <c r="O49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P49" s="2" t="s">
-        <v>9</v>
+      <c r="P49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="2" t="s">
-        <v>11</v>
+      <c r="R49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="2" t="s">
-        <v>10</v>
+      <c r="T49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF49" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AE49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH49" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI49" s="2">
-        <v>650</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -5783,43 +5786,43 @@
         <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>9</v>
+      <c r="M50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>15</v>
@@ -5827,23 +5830,23 @@
       <c r="Q50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T50" s="4" t="s">
-        <v>16</v>
+      <c r="R50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W50" s="4" t="s">
-        <v>16</v>
+      <c r="W50" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="X50" s="4" t="s">
         <v>16</v>
@@ -5852,34 +5855,34 @@
         <v>11</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA50" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AB50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC50" s="2" t="s">
-        <v>11</v>
+      <c r="AC50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF50" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AF50" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH50" s="2">
         <v>8</v>
       </c>
       <c r="AI50" s="2">
-        <v>490</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -5890,13 +5893,13 @@
         <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>11</v>
@@ -5905,49 +5908,49 @@
         <v>11</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>16</v>
+      <c r="M51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q51" s="2" t="s">
-        <v>11</v>
+      <c r="Q51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W51" s="4" t="s">
         <v>16</v>
@@ -5961,32 +5964,32 @@
       <c r="Z51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA51" s="2" t="s">
-        <v>10</v>
+      <c r="AA51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC51" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF51" s="2" t="s">
-        <v>14</v>
+      <c r="AF51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH51" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI51" s="2">
-        <v>670</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -6000,19 +6003,19 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>16</v>
@@ -6023,17 +6026,17 @@
       <c r="K52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>16</v>
+      <c r="L52" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="2" t="s">
-        <v>9</v>
+      <c r="N52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>16</v>
@@ -6041,47 +6044,47 @@
       <c r="Q52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="2" t="s">
-        <v>12</v>
+      <c r="R52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W52" s="2" t="s">
-        <v>14</v>
+      <c r="W52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y52" s="4" t="s">
-        <v>16</v>
+      <c r="Y52" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF52" s="4" t="s">
         <v>16</v>
@@ -6090,10 +6093,10 @@
         <v>9</v>
       </c>
       <c r="AH52" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI52" s="2">
-        <v>420</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6106,101 +6109,101 @@
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>10</v>
+      <c r="D53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA53" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD53" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="AD53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AF53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG53" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AG53" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AH53" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI53" s="2">
-        <v>590</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6211,103 +6214,103 @@
         <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>16</v>
+      <c r="K54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U54" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y54" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB54" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD54" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG54" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH54" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI54" s="2">
-        <v>570</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -6317,7 +6320,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6340,9 +6343,25 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43677</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scheduling/排班.xlsx
+++ b/scheduling/排班.xlsx
@@ -1619,13 +1619,13 @@
         <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
@@ -1634,73 +1634,73 @@
         <v>16</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>15</v>
+      <c r="X11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>64</v>
@@ -1709,7 +1709,7 @@
         <v>6</v>
       </c>
       <c r="AI11" s="2">
-        <v>530</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1719,104 +1719,104 @@
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH12" s="2">
         <v>8</v>
       </c>
       <c r="AI12" s="2">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1827,19 +1827,19 @@
         <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>15</v>
@@ -1851,25 +1851,25 @@
         <v>11</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>11</v>
@@ -1877,53 +1877,53 @@
       <c r="S13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>10</v>
+      <c r="T13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>16</v>
+      <c r="Y13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" s="2">
-        <v>450</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1937,16 +1937,16 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>16</v>
@@ -1955,82 +1955,82 @@
         <v>16</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>16</v>
+      <c r="W14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH14" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI14" s="2">
-        <v>480</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2041,103 +2041,103 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>16</v>
+      <c r="O15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="4" t="s">
-        <v>16</v>
+      <c r="X15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI15" s="2">
-        <v>570</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2148,103 +2148,103 @@
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI16" s="2">
-        <v>1550</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2255,103 +2255,103 @@
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>16</v>
+      <c r="Q17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>9</v>
+      <c r="S17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA17" s="4" t="s">
-        <v>16</v>
+      <c r="AA17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AH17" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI17" s="2">
-        <v>570</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2362,103 +2362,103 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH18" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI18" s="2">
-        <v>610</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2469,103 +2469,103 @@
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>16</v>
+      <c r="Q19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD19" s="2" t="s">
-        <v>11</v>
+      <c r="AD19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AH19" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI19" s="2">
-        <v>450</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2575,104 +2575,104 @@
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH20" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI20" s="2">
-        <v>1550</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2682,53 +2682,53 @@
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>11</v>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>11</v>
+      <c r="R21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>16</v>
@@ -2737,49 +2737,49 @@
         <v>16</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG21" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AH21" s="2">
         <v>11</v>
       </c>
       <c r="AI21" s="2">
-        <v>480</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2790,34 +2790,34 @@
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>16</v>
@@ -2825,68 +2825,68 @@
       <c r="N22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>15</v>
+      <c r="O22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>16</v>
+      <c r="S22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE22" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH22" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI22" s="2">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2896,8 +2896,8 @@
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>16</v>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
@@ -2912,13 +2912,13 @@
         <v>10</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>15</v>
@@ -2927,73 +2927,73 @@
         <v>16</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>16</v>
+      <c r="T23" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH23" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI23" s="2">
-        <v>500</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3004,31 +3004,31 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>16</v>
@@ -3037,58 +3037,58 @@
         <v>16</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>16</v>
+      <c r="Q24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>14</v>
+      <c r="Y24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF24" s="4" t="s">
         <v>16</v>
@@ -3097,10 +3097,10 @@
         <v>9</v>
       </c>
       <c r="AH24" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI24" s="2">
-        <v>570</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3111,61 +3111,61 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>10</v>
@@ -3179,35 +3179,35 @@
       <c r="Y25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z25" s="4" t="s">
-        <v>16</v>
+      <c r="Z25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH25" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI25" s="2">
-        <v>620</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3217,35 +3217,35 @@
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>16</v>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>16</v>
@@ -3254,67 +3254,67 @@
         <v>9</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y26" s="2" t="s">
-        <v>11</v>
+      <c r="Y26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AC26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>9</v>
+      <c r="AC26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" s="2">
-        <v>470</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3325,103 +3325,103 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG27" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="AG27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI27" s="2">
-        <v>1550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3432,31 +3432,31 @@
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>16</v>
@@ -3465,37 +3465,37 @@
         <v>16</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>16</v>
+      <c r="Q28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>16</v>
+      <c r="W28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>16</v>
@@ -3507,16 +3507,16 @@
         <v>16</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF28" s="2" t="s">
         <v>15</v>
@@ -3525,10 +3525,10 @@
         <v>16</v>
       </c>
       <c r="AH28" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI28" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3538,50 +3538,50 @@
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>16</v>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>16</v>
@@ -3589,53 +3589,53 @@
       <c r="S29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T29" s="4" t="s">
-        <v>16</v>
+      <c r="T29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="4" t="s">
-        <v>16</v>
+      <c r="W29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD29" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AC29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH29" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" s="2">
-        <v>640</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3646,22 +3646,22 @@
         <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>16</v>
@@ -3670,16 +3670,16 @@
         <v>10</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>11</v>
@@ -3691,58 +3691,58 @@
         <v>16</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U30" s="2" t="s">
-        <v>15</v>
+      <c r="U30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y30" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Z30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE30" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="AG30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH30" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI30" s="2">
-        <v>450</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3753,103 +3753,103 @@
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>16</v>
+      <c r="K31" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>15</v>
+      <c r="S31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AE31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH31" s="2">
         <v>7</v>
       </c>
       <c r="AI31" s="2">
-        <v>580</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3860,31 +3860,31 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>16</v>
+      <c r="G32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>16</v>
@@ -3893,70 +3893,70 @@
         <v>16</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB32" s="4" t="s">
-        <v>16</v>
+      <c r="W32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG32" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AF32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AH32" s="2">
         <v>10</v>
       </c>
       <c r="AI32" s="2">
-        <v>450</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3967,103 +3967,103 @@
         <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>11</v>
+      <c r="F33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S33" s="4" t="s">
-        <v>16</v>
+      <c r="S33" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB33" s="2" t="s">
-        <v>13</v>
+      <c r="Z33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH33" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI33" s="2">
-        <v>550</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4077,49 +4077,49 @@
         <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>16</v>
+      <c r="Q34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>16</v>
@@ -4128,49 +4128,49 @@
         <v>16</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA34" s="2" t="s">
-        <v>10</v>
+      <c r="AA34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC34" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH34" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI34" s="2">
-        <v>430</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4180,104 +4180,104 @@
       <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
+      <c r="C35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>16</v>
+      <c r="N35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z35" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AA35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AF35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH35" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI35" s="2">
-        <v>440</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4288,103 +4288,103 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>10</v>
+      <c r="M36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U36" s="2" t="s">
-        <v>10</v>
+      <c r="U36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X36" s="4" t="s">
-        <v>16</v>
+      <c r="X36" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Z36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB36" s="2" t="s">
-        <v>11</v>
+      <c r="AA36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD36" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AE36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH36" s="2">
         <v>10</v>
       </c>
       <c r="AI36" s="2">
-        <v>490</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4395,103 +4395,103 @@
         <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z37" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="AB37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE37" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG37" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="AG37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH37" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI37" s="2">
-        <v>530</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4502,31 +4502,31 @@
         <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>16</v>
@@ -4535,70 +4535,70 @@
         <v>16</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AH38" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI38" s="2">
-        <v>540</v>
+        <v>590</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4609,103 +4609,103 @@
         <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="X39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH39" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI39" s="2">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -4719,100 +4719,100 @@
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB40" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AC40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AD40" s="2" t="s">
-        <v>10</v>
+      <c r="AD40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG40" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AG40" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AH40" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI40" s="2">
-        <v>490</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -4822,14 +4822,14 @@
       <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>16</v>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>16</v>
@@ -4838,88 +4838,88 @@
         <v>11</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>16</v>
+      <c r="Q41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z41" s="4" t="s">
-        <v>16</v>
+      <c r="Z41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE41" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AD41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH41" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI41" s="2">
-        <v>390</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -4935,98 +4935,98 @@
       <c r="D42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>16</v>
+      <c r="E42" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>11</v>
+      <c r="O42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB42" s="2" t="s">
-        <v>11</v>
+      <c r="AA42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG42" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH42" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI42" s="2">
-        <v>600</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -5036,44 +5036,44 @@
       <c r="B43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>15</v>
+      <c r="C43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>16</v>
@@ -5081,59 +5081,59 @@
       <c r="Q43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>10</v>
+      <c r="R43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="W43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA43" s="4" t="s">
-        <v>16</v>
+      <c r="Z43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AE43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH43" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI43" s="2">
-        <v>400</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -5144,46 +5144,46 @@
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>16</v>
@@ -5191,17 +5191,17 @@
       <c r="R44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>16</v>
+      <c r="S44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W44" s="4" t="s">
         <v>16</v>
@@ -5209,11 +5209,11 @@
       <c r="X44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>9</v>
+      <c r="Y44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA44" s="2" t="s">
         <v>11</v>
@@ -5222,25 +5222,25 @@
         <v>11</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH44" s="2">
         <v>10</v>
       </c>
       <c r="AI44" s="2">
-        <v>410</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5251,88 +5251,88 @@
         <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>16</v>
+      <c r="L45" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="S45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE45" s="4" t="s">
         <v>16</v>
@@ -5341,13 +5341,13 @@
         <v>10</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH45" s="2">
         <v>9</v>
       </c>
       <c r="AI45" s="2">
-        <v>560</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:35">
@@ -5358,61 +5358,61 @@
         <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>13</v>
+      <c r="K46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="V46" s="4" t="s">
         <v>16</v>
@@ -5421,40 +5421,40 @@
         <v>16</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG46" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AH46" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI46" s="2">
-        <v>440</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -5465,52 +5465,52 @@
         <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>16</v>
+      <c r="M47" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q47" s="4" t="s">
-        <v>16</v>
+      <c r="Q47" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>16</v>
@@ -5519,49 +5519,49 @@
         <v>16</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X47" s="4" t="s">
-        <v>16</v>
+      <c r="W47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>13</v>
+      <c r="Z47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC47" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF47" s="2" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="AF47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH47" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI47" s="2">
-        <v>530</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -5572,31 +5572,31 @@
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>9</v>
@@ -5605,70 +5605,70 @@
         <v>16</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T48" s="2" t="s">
-        <v>9</v>
+      <c r="T48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y48" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB48" s="4" t="s">
-        <v>16</v>
+      <c r="AB48" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD48" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF48" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="AF48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH48" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI48" s="2">
-        <v>490</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -5679,49 +5679,49 @@
         <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>16</v>
@@ -5733,49 +5733,49 @@
         <v>16</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V49" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA49" s="4" t="s">
-        <v>16</v>
+      <c r="Z49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH49" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI49" s="2">
-        <v>430</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -5785,68 +5785,68 @@
       <c r="B50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
+      <c r="C50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>16</v>
+      <c r="M50" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>16</v>
+      <c r="R50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X50" s="4" t="s">
         <v>16</v>
@@ -5855,34 +5855,34 @@
         <v>11</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AA50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC50" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF50" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="AF50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH50" s="2">
         <v>8</v>
       </c>
       <c r="AI50" s="2">
-        <v>560</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -5893,76 +5893,76 @@
         <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>9</v>
+      <c r="I51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>16</v>
+      <c r="M51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA51" s="4" t="s">
         <v>16</v>
@@ -5971,25 +5971,25 @@
         <v>11</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF51" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AH51" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI51" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -6005,77 +6005,77 @@
       <c r="D52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>10</v>
+      <c r="E52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="4" t="s">
-        <v>16</v>
+      <c r="N52" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S52" s="4" t="s">
-        <v>16</v>
+      <c r="S52" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC52" s="2" t="s">
         <v>12</v>
@@ -6084,19 +6084,19 @@
         <v>11</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG52" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="AF52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH52" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI52" s="2">
-        <v>450</v>
+        <v>650</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6109,20 +6109,20 @@
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>16</v>
+      <c r="D53" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>16</v>
+      <c r="F53" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>16</v>
@@ -6131,79 +6131,79 @@
         <v>9</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>14</v>
+      <c r="M53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S53" s="2" t="s">
-        <v>15</v>
+      <c r="S53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD53" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF53" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="AF53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH53" s="2">
         <v>9</v>
       </c>
       <c r="AI53" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6214,61 +6214,61 @@
         <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>16</v>
+      <c r="E54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R54" s="4" t="s">
-        <v>16</v>
+      <c r="P54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>11</v>
@@ -6276,41 +6276,41 @@
       <c r="W54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X54" s="2" t="s">
-        <v>11</v>
+      <c r="X54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC54" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AG54" s="4" t="s">
-        <v>16</v>
+      <c r="AG54" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AH54" s="2">
         <v>9</v>
       </c>
       <c r="AI54" s="2">
-        <v>640</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/scheduling/排班.xlsx
+++ b/scheduling/排班.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="69">
   <si>
     <t>Mon</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>提示信息</t>
-  </si>
-  <si>
-    <t>两个班次之间的休息时间小于12小时</t>
   </si>
 </sst>
 </file>
@@ -1621,92 +1618,92 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>14</v>
+      <c r="T11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>64</v>
       </c>
       <c r="AH11" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI11" s="2">
         <v>490</v>
@@ -1719,89 +1716,89 @@
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>10</v>
+      <c r="Q12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V12" s="4" t="s">
-        <v>16</v>
+      <c r="V12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y12" s="2" t="s">
-        <v>11</v>
+      <c r="Y12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE12" s="2" t="s">
         <v>11</v>
@@ -1810,13 +1807,13 @@
         <v>10</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH12" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI12" s="2">
-        <v>500</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1830,40 +1827,40 @@
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>16</v>
+      <c r="M13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>16</v>
@@ -1871,59 +1868,59 @@
       <c r="Q13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>11</v>
+      <c r="R13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>16</v>
+      <c r="T13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH13" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1982,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>12</v>
@@ -2030,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="AI14" s="2">
-        <v>1130</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2068,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>12</v>
@@ -2083,7 +2080,7 @@
         <v>16</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>11</v>
@@ -2092,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>12</v>
@@ -2137,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="AI15" s="2">
-        <v>1130</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2148,103 +2145,103 @@
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>16</v>
+      <c r="Q16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T16" s="4" t="s">
-        <v>16</v>
+      <c r="T16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>9</v>
+      <c r="X16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AG16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AH16" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI16" s="2">
-        <v>530</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2254,35 +2251,35 @@
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>16</v>
@@ -2291,46 +2288,46 @@
         <v>9</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>15</v>
@@ -2341,17 +2338,17 @@
       <c r="AE17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF17" s="2" t="s">
-        <v>10</v>
+      <c r="AF17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH17" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI17" s="2">
-        <v>530</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2389,10 +2386,10 @@
         <v>12</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>12</v>
@@ -2404,13 +2401,13 @@
         <v>16</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>12</v>
@@ -2428,10 +2425,10 @@
         <v>12</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA18" s="2" t="s">
         <v>12</v>
@@ -2499,7 +2496,7 @@
         <v>12</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>12</v>
@@ -2520,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>12</v>
@@ -2535,10 +2532,10 @@
         <v>12</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" s="2" t="s">
         <v>11</v>
@@ -2579,100 +2576,100 @@
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V20" s="4" t="s">
-        <v>16</v>
+      <c r="V20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE20" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH20" s="2">
         <v>9</v>
       </c>
       <c r="AI20" s="2">
-        <v>430</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2683,103 +2680,103 @@
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>16</v>
+      <c r="M21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH21" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI21" s="2">
-        <v>550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2790,31 +2787,31 @@
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>16</v>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>16</v>
@@ -2823,61 +2820,61 @@
         <v>16</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE22" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG22" s="2" t="s">
         <v>11</v>
@@ -2886,7 +2883,7 @@
         <v>8</v>
       </c>
       <c r="AI22" s="2">
-        <v>540</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2903,7 +2900,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>16</v>
@@ -2915,55 +2912,55 @@
         <v>11</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>10</v>
+      <c r="M23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Z23" s="2" t="s">
         <v>14</v>
@@ -2971,29 +2968,29 @@
       <c r="AA23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>16</v>
+      <c r="AB23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI23" s="2">
-        <v>540</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3006,41 +3003,41 @@
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
+      <c r="D24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>16</v>
@@ -3048,20 +3045,20 @@
       <c r="Q24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>16</v>
+      <c r="R24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W24" s="4" t="s">
         <v>16</v>
@@ -3070,7 +3067,7 @@
         <v>16</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>16</v>
@@ -3079,28 +3076,28 @@
         <v>16</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH24" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI24" s="2">
-        <v>480</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3111,61 +3108,61 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>15</v>
+      <c r="R25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>10</v>
@@ -3173,41 +3170,41 @@
       <c r="W25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X25" s="4" t="s">
-        <v>16</v>
+      <c r="X25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z25" s="2" t="s">
-        <v>10</v>
+      <c r="Z25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH25" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI25" s="2">
-        <v>430</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3217,32 +3214,32 @@
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>10</v>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>16</v>
@@ -3251,70 +3248,70 @@
         <v>16</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>11</v>
+      <c r="R26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y26" s="4" t="s">
-        <v>16</v>
+      <c r="Y26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="AG26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH26" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI26" s="2">
-        <v>590</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3325,103 +3322,103 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W27" s="4" t="s">
-        <v>16</v>
+      <c r="W27" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="X27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="AE27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG27" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AH27" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI27" s="2">
-        <v>450</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3432,28 +3429,28 @@
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>16</v>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>9</v>
+      <c r="G28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>15</v>
@@ -3461,74 +3458,74 @@
       <c r="L28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>16</v>
+      <c r="M28" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U28" s="2" t="s">
-        <v>13</v>
+      <c r="U28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>10</v>
+      <c r="Z28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG28" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AH28" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" s="2">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3544,17 +3541,17 @@
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
+      <c r="E29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>14</v>
@@ -3563,40 +3560,40 @@
         <v>14</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W29" s="4" t="s">
         <v>16</v>
@@ -3604,35 +3601,35 @@
       <c r="X29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>15</v>
+      <c r="Y29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC29" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH29" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI29" s="2">
         <v>530</v>
@@ -3648,44 +3645,44 @@
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>11</v>
+      <c r="K30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>16</v>
@@ -3694,55 +3691,55 @@
         <v>11</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U30" s="4" t="s">
-        <v>16</v>
+      <c r="U30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG30" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AH30" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI30" s="2">
-        <v>570</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3753,103 +3750,103 @@
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB31" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AC31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="AE31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AG31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AH31" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI31" s="2">
-        <v>630</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3860,37 +3857,37 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>15</v>
@@ -3904,59 +3901,59 @@
       <c r="Q32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>10</v>
+      <c r="R32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T32" s="4" t="s">
-        <v>16</v>
+      <c r="T32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA32" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="AC32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH32" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI32" s="2">
-        <v>480</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3967,7 +3964,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -3982,88 +3979,88 @@
         <v>10</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y33" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Z33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB33" s="4" t="s">
-        <v>16</v>
+      <c r="AA33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="AF33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH33" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI33" s="2">
-        <v>510</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4074,52 +4071,52 @@
         <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>16</v>
+      <c r="G34" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>16</v>
@@ -4128,22 +4125,22 @@
         <v>16</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z34" s="4" t="s">
-        <v>16</v>
+      <c r="Z34" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AA34" s="4" t="s">
         <v>16</v>
@@ -4152,25 +4149,25 @@
         <v>14</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH34" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI34" s="2">
-        <v>500</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4180,104 +4177,104 @@
       <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>16</v>
+      <c r="C35" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF35" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH35" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI35" s="2">
-        <v>530</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4288,49 +4285,49 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>16</v>
@@ -4338,53 +4335,53 @@
       <c r="S36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>16</v>
+      <c r="T36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB36" s="4" t="s">
-        <v>16</v>
+      <c r="AA36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG36" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AF36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AH36" s="2">
         <v>10</v>
       </c>
       <c r="AI36" s="2">
-        <v>460</v>
+        <v>680</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4395,103 +4392,103 @@
         <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>11</v>
+      <c r="S37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB37" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AE37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG37" s="4" t="s">
-        <v>16</v>
+      <c r="AE37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AH37" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI37" s="2">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4502,58 +4499,58 @@
         <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>16</v>
+      <c r="M38" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>16</v>
+      <c r="P38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>16</v>
@@ -4562,7 +4559,7 @@
         <v>11</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>10</v>
@@ -4570,8 +4567,8 @@
       <c r="Y38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z38" s="4" t="s">
-        <v>16</v>
+      <c r="Z38" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>16</v>
@@ -4580,25 +4577,25 @@
         <v>16</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AH38" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI38" s="2">
-        <v>590</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4609,46 +4606,46 @@
         <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>16</v>
@@ -4666,46 +4663,46 @@
         <v>11</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF39" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="AF39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH39" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AI39" s="2">
-        <v>560</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -4715,104 +4712,104 @@
       <c r="B40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>12</v>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>11</v>
+      <c r="G40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>16</v>
+      <c r="P40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD40" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AF40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH40" s="2">
         <v>8</v>
       </c>
       <c r="AI40" s="2">
-        <v>530</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -4823,31 +4820,31 @@
         <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>16</v>
@@ -4856,28 +4853,28 @@
         <v>10</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>13</v>
+      <c r="S41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>14</v>
@@ -4885,41 +4882,41 @@
       <c r="W41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>15</v>
+      <c r="X41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD41" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH41" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI41" s="2">
-        <v>530</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -4933,100 +4930,100 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>16</v>
+      <c r="M42" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S42" s="2" t="s">
-        <v>15</v>
+      <c r="S42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Z42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB42" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AH42" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI42" s="2">
-        <v>480</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -5036,35 +5033,35 @@
       <c r="B43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>16</v>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>11</v>
@@ -5073,34 +5070,34 @@
         <v>11</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y43" s="4" t="s">
         <v>16</v>
@@ -5108,32 +5105,32 @@
       <c r="Z43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA43" s="2" t="s">
-        <v>10</v>
+      <c r="AA43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AE43" s="4" t="s">
-        <v>16</v>
+      <c r="AE43" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH43" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI43" s="2">
-        <v>610</v>
+        <v>660</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -5144,103 +5141,103 @@
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>16</v>
+      <c r="G44" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>15</v>
+      <c r="K44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="S44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="X44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z44" s="4" t="s">
-        <v>16</v>
+      <c r="Y44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AA44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="AD44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH44" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI44" s="2">
-        <v>550</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5250,104 +5247,104 @@
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
+      <c r="C45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>16</v>
+      <c r="H45" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>15</v>
+      <c r="M45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="2" t="s">
-        <v>15</v>
+      <c r="T45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="X45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA45" s="4" t="s">
-        <v>16</v>
+      <c r="Y45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE45" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG45" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="AG45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH45" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI45" s="2">
-        <v>610</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:35">
@@ -5358,40 +5355,40 @@
         <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>13</v>
@@ -5403,58 +5400,58 @@
         <v>16</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="W46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA46" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AB46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE46" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="AE46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AH46" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI46" s="2">
-        <v>460</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -5465,52 +5462,52 @@
         <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>15</v>
+      <c r="M47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>16</v>
@@ -5519,49 +5516,49 @@
         <v>16</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z47" s="4" t="s">
-        <v>16</v>
+      <c r="X47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AA47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD47" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="AD47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH47" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI47" s="2">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -5572,10 +5569,10 @@
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>16</v>
@@ -5584,61 +5581,61 @@
         <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U48" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z48" s="2" t="s">
         <v>11</v>
@@ -5647,28 +5644,28 @@
         <v>16</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH48" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI48" s="2">
-        <v>430</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -5679,103 +5676,103 @@
         <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="S49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="4" t="s">
-        <v>16</v>
+      <c r="T49" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>10</v>
+      <c r="Y49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE49" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH49" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI49" s="2">
-        <v>540</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -5785,104 +5782,104 @@
       <c r="B50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>16</v>
+      <c r="C50" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U50" s="4" t="s">
-        <v>16</v>
+      <c r="R50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA50" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Z50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH50" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI50" s="2">
-        <v>670</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -5892,104 +5889,104 @@
       <c r="B51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>16</v>
+      <c r="C51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O51" s="4" t="s">
-        <v>16</v>
+      <c r="O51" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z51" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AA51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB51" s="2" t="s">
-        <v>11</v>
+      <c r="AB51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE51" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AD51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AF51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH51" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI51" s="2">
-        <v>600</v>
+        <v>520</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -6003,55 +6000,55 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="2" t="s">
-        <v>14</v>
+      <c r="N52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R52" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U52" s="4" t="s">
         <v>16</v>
@@ -6060,10 +6057,10 @@
         <v>10</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y52" s="4" t="s">
         <v>16</v>
@@ -6071,32 +6068,32 @@
       <c r="Z52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA52" s="4" t="s">
-        <v>16</v>
+      <c r="AA52" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="AE52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG52" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AH52" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI52" s="2">
-        <v>650</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6107,103 +6104,103 @@
         <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S53" s="4" t="s">
-        <v>16</v>
+      <c r="S53" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="T53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U53" s="2" t="s">
-        <v>11</v>
+      <c r="U53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X53" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AD53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AF53" s="4" t="s">
-        <v>16</v>
+      <c r="AF53" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH53" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI53" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6213,8 +6210,8 @@
       <c r="B54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>11</v>
+      <c r="C54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>16</v>
@@ -6223,94 +6220,94 @@
         <v>16</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U54" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC54" s="4" t="s">
-        <v>16</v>
+      <c r="AC54" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG54" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH54" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI54" s="2">
-        <v>560</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -6320,7 +6317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6343,25 +6340,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43677</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scheduling/排班.xlsx
+++ b/scheduling/排班.xlsx
@@ -1615,98 +1615,98 @@
       <c r="D11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>16</v>
+      <c r="N11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="X11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>16</v>
+      <c r="Y11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>64</v>
       </c>
       <c r="AH11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI11" s="2">
-        <v>490</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1717,46 +1717,46 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>16</v>
+      <c r="M12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>16</v>
@@ -1765,55 +1765,55 @@
         <v>16</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH12" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AI12" s="2">
-        <v>460</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1824,37 +1824,37 @@
         <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>10</v>
@@ -1862,65 +1862,65 @@
       <c r="O13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>16</v>
+      <c r="P13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>12</v>
+      <c r="V13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AH13" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI13" s="2">
-        <v>430</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1961,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>12</v>
@@ -1994,7 +1994,7 @@
         <v>16</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y14" s="2" t="s">
         <v>12</v>
@@ -2065,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>12</v>
@@ -2080,13 +2080,13 @@
         <v>16</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>12</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="AI15" s="2">
-        <v>1120</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2145,103 +2145,103 @@
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>15</v>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>16</v>
+      <c r="Y16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AB16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH16" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI16" s="2">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2251,74 +2251,74 @@
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>16</v>
@@ -2326,29 +2326,29 @@
       <c r="AA17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AB17" s="4" t="s">
-        <v>16</v>
+      <c r="AB17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF17" s="4" t="s">
-        <v>16</v>
+      <c r="AF17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AH17" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI17" s="2">
-        <v>410</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2401,13 +2401,13 @@
         <v>16</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>12</v>
@@ -2422,13 +2422,13 @@
         <v>16</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA18" s="2" t="s">
         <v>12</v>
@@ -2493,10 +2493,10 @@
         <v>12</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>12</v>
@@ -2532,10 +2532,10 @@
         <v>12</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA19" s="2" t="s">
         <v>11</v>
@@ -2562,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="AI19" s="2">
-        <v>1120</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2572,68 +2572,68 @@
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>10</v>
+      <c r="R20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X20" s="4" t="s">
         <v>16</v>
@@ -2641,35 +2641,35 @@
       <c r="Y20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z20" s="2" t="s">
-        <v>11</v>
+      <c r="Z20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI20" s="2">
-        <v>600</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2680,19 +2680,19 @@
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>15</v>
@@ -2701,22 +2701,22 @@
         <v>16</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>16</v>
@@ -2727,56 +2727,56 @@
       <c r="R21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="2" t="s">
-        <v>9</v>
+      <c r="S21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>16</v>
+      <c r="AA21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG21" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AH21" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI21" s="2">
-        <v>450</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2787,103 +2787,103 @@
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>16</v>
+      <c r="Q22" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>10</v>
+      <c r="T22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH22" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI22" s="2">
-        <v>520</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2896,101 +2896,101 @@
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>16</v>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AH23" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI23" s="2">
-        <v>490</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3001,103 +3001,103 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="4" t="s">
-        <v>16</v>
+      <c r="Q24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>13</v>
+      <c r="V24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X24" s="4" t="s">
-        <v>16</v>
+      <c r="X24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH24" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI24" s="2">
-        <v>560</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3108,103 +3108,103 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>12</v>
+      <c r="H25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AH25" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI25" s="2">
-        <v>540</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3214,77 +3214,77 @@
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>16</v>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>16</v>
+      <c r="M26" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>11</v>
+      <c r="R26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>9</v>
@@ -3293,25 +3293,25 @@
         <v>9</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG26" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AH26" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI26" s="2">
-        <v>680</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3321,23 +3321,23 @@
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
+      <c r="C27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>16</v>
@@ -3346,79 +3346,79 @@
         <v>11</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>13</v>
+      <c r="Y27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH27" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AI27" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3432,85 +3432,85 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>16</v>
+      <c r="R28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB28" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD28" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AE28" s="2" t="s">
         <v>10</v>
@@ -3518,14 +3518,14 @@
       <c r="AF28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="2" t="s">
-        <v>13</v>
+      <c r="AG28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH28" s="2">
         <v>9</v>
       </c>
       <c r="AI28" s="2">
-        <v>440</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3535,71 +3535,71 @@
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>16</v>
@@ -3611,28 +3611,28 @@
         <v>16</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF29" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AF29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH29" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3643,43 +3643,43 @@
         <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>9</v>
+      <c r="K30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>15</v>
@@ -3687,59 +3687,59 @@
       <c r="Q30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>16</v>
+      <c r="R30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC30" s="4" t="s">
-        <v>16</v>
+      <c r="AB30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH30" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI30" s="2">
-        <v>590</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3753,34 +3753,34 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>16</v>
+      <c r="I31" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>16</v>
+      <c r="L31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>15</v>
@@ -3792,61 +3792,61 @@
         <v>16</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>15</v>
+      <c r="S31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH31" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI31" s="2">
-        <v>530</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3857,82 +3857,82 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>16</v>
+      <c r="Q32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T32" s="2" t="s">
-        <v>11</v>
+      <c r="T32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC32" s="4" t="s">
         <v>16</v>
@@ -3941,19 +3941,19 @@
         <v>11</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH32" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI32" s="2">
-        <v>650</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3970,37 +3970,37 @@
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>15</v>
@@ -4011,56 +4011,56 @@
       <c r="R33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S33" s="2" t="s">
-        <v>15</v>
+      <c r="S33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH33" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI33" s="2">
-        <v>590</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4070,104 +4070,104 @@
       <c r="B34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
+      <c r="C34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>14</v>
+      <c r="E34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S34" s="4" t="s">
-        <v>16</v>
+      <c r="S34" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="X34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA34" s="4" t="s">
-        <v>16</v>
+      <c r="Y34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AB34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AF34" s="2" t="s">
-        <v>13</v>
+      <c r="AF34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AH34" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI34" s="2">
-        <v>380</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4178,10 +4178,10 @@
         <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
@@ -4189,38 +4189,38 @@
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>11</v>
+      <c r="G35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>16</v>
+      <c r="I35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>16</v>
@@ -4229,25 +4229,25 @@
         <v>11</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="W35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AA35" s="4" t="s">
         <v>16</v>
@@ -4256,25 +4256,25 @@
         <v>10</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG35" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="AG35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH35" s="2">
         <v>7</v>
       </c>
       <c r="AI35" s="2">
-        <v>620</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4285,103 +4285,103 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>16</v>
+      <c r="R36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X36" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z36" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AA36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG36" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH36" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI36" s="2">
-        <v>680</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4392,70 +4392,70 @@
         <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>9</v>
+      <c r="M37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y37" s="4" t="s">
         <v>16</v>
@@ -4463,32 +4463,32 @@
       <c r="Z37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA37" s="2" t="s">
-        <v>10</v>
+      <c r="AA37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG37" s="2" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG37" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AH37" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI37" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4502,22 +4502,22 @@
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>11</v>
@@ -4528,20 +4528,20 @@
       <c r="L38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>10</v>
+      <c r="M38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="R38" s="4" t="s">
         <v>16</v>
@@ -4550,52 +4550,52 @@
         <v>16</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB38" s="4" t="s">
-        <v>16</v>
+      <c r="Z38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE38" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH38" s="2">
         <v>9</v>
       </c>
       <c r="AI38" s="2">
-        <v>570</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4606,43 +4606,43 @@
         <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>16</v>
+      <c r="I39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
@@ -4650,59 +4650,59 @@
       <c r="Q39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>14</v>
+      <c r="R39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA39" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC39" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AD39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AE39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF39" s="4" t="s">
-        <v>16</v>
+      <c r="AE39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH39" s="2">
         <v>9</v>
       </c>
       <c r="AI39" s="2">
-        <v>490</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -4713,40 +4713,40 @@
         <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>15</v>
@@ -4755,61 +4755,61 @@
         <v>16</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA40" s="2" t="s">
-        <v>14</v>
+      <c r="AA40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH40" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI40" s="2">
-        <v>550</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -4819,50 +4819,50 @@
       <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>14</v>
+      <c r="C41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>16</v>
@@ -4877,13 +4877,13 @@
         <v>9</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X41" s="4" t="s">
-        <v>16</v>
+      <c r="X41" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Y41" s="2" t="s">
         <v>9</v>
@@ -4891,32 +4891,32 @@
       <c r="Z41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA41" s="4" t="s">
-        <v>16</v>
+      <c r="AA41" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="AE41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH41" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI41" s="2">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -4926,50 +4926,50 @@
       <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>14</v>
+      <c r="C42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>15</v>
+      <c r="L42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>16</v>
@@ -4978,10 +4978,10 @@
         <v>16</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>15</v>
@@ -4993,22 +4993,22 @@
         <v>16</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE42" s="2" t="s">
         <v>14</v>
@@ -5016,14 +5016,14 @@
       <c r="AF42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AG42" s="4" t="s">
-        <v>16</v>
+      <c r="AG42" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AH42" s="2">
         <v>8</v>
       </c>
       <c r="AI42" s="2">
-        <v>540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -5034,103 +5034,103 @@
         <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="Z43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA43" s="4" t="s">
-        <v>16</v>
+      <c r="AA43" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE43" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="AE43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH43" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI43" s="2">
-        <v>660</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -5146,98 +5146,98 @@
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>16</v>
+      <c r="E44" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>10</v>
+      <c r="M44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y44" s="4" t="s">
-        <v>16</v>
+      <c r="Y44" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD44" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AC44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF44" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AF44" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH44" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI44" s="2">
-        <v>480</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5247,71 +5247,71 @@
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>11</v>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>16</v>
+      <c r="M45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>16</v>
+      <c r="R45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U45" s="2" t="s">
-        <v>10</v>
+      <c r="U45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X45" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="Y45" s="4" t="s">
         <v>16</v>
@@ -5319,32 +5319,32 @@
       <c r="Z45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA45" s="2" t="s">
-        <v>11</v>
+      <c r="AA45" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AH45" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI45" s="2">
-        <v>460</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:35">
@@ -5354,104 +5354,104 @@
       <c r="B46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>11</v>
+      <c r="C46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" s="4" t="s">
-        <v>16</v>
+      <c r="Q46" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE46" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH46" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI46" s="2">
-        <v>500</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -5464,101 +5464,101 @@
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>16</v>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S47" s="4" t="s">
-        <v>16</v>
+      <c r="S47" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB47" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD47" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF47" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="AF47" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH47" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AI47" s="2">
-        <v>410</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -5569,103 +5569,103 @@
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB48" s="2" t="s">
-        <v>15</v>
+      <c r="AB48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AH48" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI48" s="2">
-        <v>540</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -5676,73 +5676,73 @@
         <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z49" s="4" t="s">
         <v>16</v>
@@ -5750,29 +5750,29 @@
       <c r="AA49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB49" s="4" t="s">
-        <v>16</v>
+      <c r="AB49" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="AF49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AH49" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI49" s="2">
-        <v>610</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -5783,88 +5783,88 @@
         <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T50" s="4" t="s">
-        <v>16</v>
+      <c r="R50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X50" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE50" s="2" t="s">
         <v>10</v>
@@ -5873,13 +5873,13 @@
         <v>16</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH50" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI50" s="2">
-        <v>450</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -5889,38 +5889,38 @@
       <c r="B51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>11</v>
+      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>16</v>
@@ -5929,64 +5929,64 @@
         <v>15</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T51" s="4" t="s">
-        <v>16</v>
+      <c r="S51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB51" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH51" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI51" s="2">
-        <v>520</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -6000,64 +6000,64 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="4" t="s">
-        <v>16</v>
+      <c r="N52" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U52" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X52" s="4" t="s">
         <v>16</v>
@@ -6065,35 +6065,35 @@
       <c r="Y52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB52" s="2" t="s">
-        <v>14</v>
+      <c r="Z52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB52" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE52" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AE52" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH52" s="2">
         <v>10</v>
       </c>
       <c r="AI52" s="2">
-        <v>470</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6104,61 +6104,61 @@
         <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U53" s="4" t="s">
-        <v>16</v>
+      <c r="S53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>9</v>
@@ -6166,41 +6166,41 @@
       <c r="W53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X53" s="2" t="s">
-        <v>11</v>
+      <c r="X53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB53" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD53" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AH53" s="2">
         <v>8</v>
       </c>
       <c r="AI53" s="2">
-        <v>500</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6210,14 +6210,14 @@
       <c r="B54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>16</v>
+      <c r="C54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -6225,8 +6225,8 @@
       <c r="G54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>15</v>
+      <c r="H54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>14</v>
@@ -6244,19 +6244,19 @@
         <v>16</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q54" s="2" t="s">
-        <v>15</v>
+      <c r="Q54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S54" s="4" t="s">
         <v>16</v>
@@ -6268,13 +6268,13 @@
         <v>14</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y54" s="4" t="s">
         <v>16</v>
@@ -6283,31 +6283,31 @@
         <v>16</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE54" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG54" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="AG54" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AH54" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI54" s="2">
-        <v>530</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
